--- a/output/fit_clients/fit_round_434.xlsx
+++ b/output/fit_clients/fit_round_434.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1581583733.840903</v>
+        <v>2296964570.61155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1117865355102902</v>
+        <v>0.07357875552250735</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0427337164018515</v>
+        <v>0.04481878458006289</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>790791806.3176076</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2136736260.739161</v>
+        <v>2297622121.306595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1535691419979867</v>
+        <v>0.1173157697770753</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04132411010362702</v>
+        <v>0.03849962076058386</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1068368191.622574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5104380255.015821</v>
+        <v>5131509062.356027</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1272739585735622</v>
+        <v>0.1473581476414328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03561134023212995</v>
+        <v>0.03355339594514679</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>157</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2552190219.937977</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2822157428.75581</v>
+        <v>2898280747.505227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09454169065302291</v>
+        <v>0.1097792274223812</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04879513151234218</v>
+        <v>0.05015831350996643</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>160</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1411078796.043807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2265126613.778929</v>
+        <v>1832933029.536069</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09375638600838937</v>
+        <v>0.1041579040940352</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05665186212953797</v>
+        <v>0.04398752322623828</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>82</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1132563307.807612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2407049185.473403</v>
+        <v>2275296390.738239</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07306291255725744</v>
+        <v>0.08054733179310722</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0313961469231827</v>
+        <v>0.03677821949730244</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>137</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1203524614.696284</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2529335899.399647</v>
+        <v>2584695137.231845</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1723762026911811</v>
+        <v>0.1974000063107974</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02737222011776102</v>
+        <v>0.02193847199008589</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>138</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1264667959.113937</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1914807822.661296</v>
+        <v>2188040126.724631</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1737641239763464</v>
+        <v>0.1252759080889968</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02894190283652374</v>
+        <v>0.02526907777766831</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>957403949.7827537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4681119482.806282</v>
+        <v>4784061846.389337</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1614520779419241</v>
+        <v>0.2039949319549223</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03369601295755324</v>
+        <v>0.05151003400778828</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>182</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2340559816.031772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3590033762.392901</v>
+        <v>3789278983.594452</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1271452556779024</v>
+        <v>0.1385068965446745</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03113135467348521</v>
+        <v>0.03681082585299696</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>179</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1795016865.286212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2634718964.621276</v>
+        <v>3056718424.166789</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1868238998049422</v>
+        <v>0.179091699852714</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03847839817348801</v>
+        <v>0.0526872746927537</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>148</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1317359466.875033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4950006265.664268</v>
+        <v>3577896335.503922</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09382452149460153</v>
+        <v>0.06615777266112688</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02754172713317765</v>
+        <v>0.02679503596218953</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>145</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2475003139.527892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2631816209.06011</v>
+        <v>3019766670.03001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1780668045300716</v>
+        <v>0.188312949737805</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03559833399708607</v>
+        <v>0.0440409604211888</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>139</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1315908165.649636</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1362839146.376802</v>
+        <v>1691754901.765112</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08040507501031517</v>
+        <v>0.09532056385309658</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03033513083027323</v>
+        <v>0.04822764228521702</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>681419627.6173167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2010955890.969237</v>
+        <v>2676296264.905941</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1066362035022711</v>
+        <v>0.07610381467063268</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04381419840996524</v>
+        <v>0.0478347995031547</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1005478020.006147</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4533550422.672696</v>
+        <v>3856114303.864665</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1424160076413976</v>
+        <v>0.1279283377906471</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05019604901908224</v>
+        <v>0.03313419815706109</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>128</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2266775219.590165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3420780330.284059</v>
+        <v>3833356418.922392</v>
       </c>
       <c r="F18" t="n">
-        <v>0.166264029433219</v>
+        <v>0.1781143896568932</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03262328910503626</v>
+        <v>0.03066705823051412</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>142</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1710390164.954924</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1321839009.686049</v>
+        <v>1061526345.627937</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1816249518417374</v>
+        <v>0.1695336664763584</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02216903090490696</v>
+        <v>0.02224952115060316</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>660919612.4418671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2225513282.214484</v>
+        <v>1849031536.915407</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1029921951174743</v>
+        <v>0.1068877007491301</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01973757327107511</v>
+        <v>0.02638264243682132</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1112756643.449899</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2291768869.23691</v>
+        <v>1839700511.505508</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07513923068622988</v>
+        <v>0.07247236248948256</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0443384048791532</v>
+        <v>0.03421855149897607</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1145884442.696342</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3210698761.586311</v>
+        <v>2804431784.704382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1249276364710136</v>
+        <v>0.1450184993319608</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05401575058705833</v>
+        <v>0.04803192693681909</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>121</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1605349429.721689</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1558416035.932977</v>
+        <v>1293406209.668353</v>
       </c>
       <c r="F23" t="n">
-        <v>0.121239607930059</v>
+        <v>0.168593396698429</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05427758367594025</v>
+        <v>0.04692813923935989</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>779207994.0879842</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3983301284.876326</v>
+        <v>3782479707.161567</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09473364040413484</v>
+        <v>0.1310058146421372</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03336288967256691</v>
+        <v>0.03557123218324659</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>127</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1991650611.567455</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>894997678.7495626</v>
+        <v>1374347909.296536</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1077670376792069</v>
+        <v>0.08697435770428907</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02598461834673503</v>
+        <v>0.01934873143657414</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>447498927.5304091</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>910294237.0951512</v>
+        <v>1129490947.692061</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1189935934563748</v>
+        <v>0.08828287022403121</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03392562706850788</v>
+        <v>0.03449379549243241</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>455147068.7425761</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3496410876.868758</v>
+        <v>4040038591.638717</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1450016794642021</v>
+        <v>0.1060923361278949</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02388365152575048</v>
+        <v>0.02194725322744235</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1748205473.641189</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3416380867.815355</v>
+        <v>2914126898.67202</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1412404150017041</v>
+        <v>0.1421945043156249</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03650254877889596</v>
+        <v>0.04719393029726443</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>141</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1708190481.297943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5277500415.91888</v>
+        <v>5276243565.587736</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1475253440709541</v>
+        <v>0.1017137144104717</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03363367353328098</v>
+        <v>0.03600135162233949</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>192</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2638750136.362087</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2293135592.997053</v>
+        <v>1477885336.671332</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1334985379035526</v>
+        <v>0.1176935831625992</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03715449706421839</v>
+        <v>0.02704029604413704</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1146567867.346456</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>904132485.4226253</v>
+        <v>932211921.5573471</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09718453209455374</v>
+        <v>0.07754820558315043</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03696272689146723</v>
+        <v>0.04322191735850883</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>452066263.8324023</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1562973434.10886</v>
+        <v>1347598272.484755</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1142126569299321</v>
+        <v>0.1014847207196055</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02887568714784198</v>
+        <v>0.02684520708068575</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>781486798.4757721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2078571701.40898</v>
+        <v>2805809847.87661</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1271080689661719</v>
+        <v>0.1898446610961469</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04514735327883505</v>
+        <v>0.06096735755072794</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>133</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1039285924.810722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1546707565.053295</v>
+        <v>952313359.9913564</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09187549285010962</v>
+        <v>0.1139315101825919</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02621295833581741</v>
+        <v>0.02812045409772525</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>773353730.7448477</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1054951717.680687</v>
+        <v>1013306529.916281</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09334540764339204</v>
+        <v>0.09061623127618039</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02940109564155327</v>
+        <v>0.040246297965097</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>527475865.3882719</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3020835111.848261</v>
+        <v>2545221985.423238</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1648831634212912</v>
+        <v>0.1600770552243741</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02085392258437424</v>
+        <v>0.01902034661115113</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>109</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1510417536.187132</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2928241474.563307</v>
+        <v>2433562048.947605</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08595484729852552</v>
+        <v>0.07967473114676309</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02575470981263666</v>
+        <v>0.04021413419488858</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>117</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1464120892.248962</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1916588613.26834</v>
+        <v>2122559276.89413</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08455861716520799</v>
+        <v>0.1091303136243238</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03089994977979769</v>
+        <v>0.03093659784079175</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>958294297.0583748</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1535101849.884359</v>
+        <v>1690868717.136642</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1883663674313505</v>
+        <v>0.1226620033579497</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02848113065800834</v>
+        <v>0.03120383226261909</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>767550990.0731913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1818366051.81516</v>
+        <v>1576722349.962242</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1442416133116634</v>
+        <v>0.1360578253417137</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0378806096670825</v>
+        <v>0.04079072959475773</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>909182912.4131644</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2299515949.538253</v>
+        <v>2825665878.133202</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1056477173014582</v>
+        <v>0.1541180565959728</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03543827759161521</v>
+        <v>0.03219694484327107</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>108</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1149758019.658574</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2786870377.386007</v>
+        <v>2713573037.738112</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1055401587490838</v>
+        <v>0.09455280198971321</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0316684079744838</v>
+        <v>0.03317505670081949</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1393435134.468941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2996032016.347806</v>
+        <v>2955437734.253069</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1743757284522829</v>
+        <v>0.2040389440048072</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0194786540450715</v>
+        <v>0.01965625159885703</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>149</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1498016006.956299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2195836475.280698</v>
+        <v>1721213505.341198</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08414663700730349</v>
+        <v>0.0632984322724492</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02481884978326404</v>
+        <v>0.03605027596419738</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1097918383.060364</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2257013348.535994</v>
+        <v>2267295720.787508</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1193409900276878</v>
+        <v>0.1681065199575609</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04036505722699179</v>
+        <v>0.04898032810635337</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1128506691.043064</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4609344595.669378</v>
+        <v>4333879616.49511</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1469735569438079</v>
+        <v>0.1077723994647382</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04533758255080864</v>
+        <v>0.04977009706854333</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>154</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2304672302.283532</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4706595171.0376</v>
+        <v>4723414089.576536</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1893495825992327</v>
+        <v>0.1437277183242386</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05271362900478998</v>
+        <v>0.05251377194177713</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2353297624.717857</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3877520855.131874</v>
+        <v>4612770523.079037</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07669568354587812</v>
+        <v>0.08113750062890814</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03867211245874341</v>
+        <v>0.03360287594414876</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1938760469.058459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1425092105.416402</v>
+        <v>1430966208.953112</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1489811032442772</v>
+        <v>0.1857701009087648</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03785987632889246</v>
+        <v>0.04301729315038987</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>712546096.3837498</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2855248763.774294</v>
+        <v>3865519145.170259</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1243203862969547</v>
+        <v>0.1781876352126588</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03877465820117224</v>
+        <v>0.05015174370156804</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>148</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1427624452.033626</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1442821872.089231</v>
+        <v>1286724557.451859</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1925971372775575</v>
+        <v>0.193601126152199</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04505356542876503</v>
+        <v>0.03524712698871017</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>721410948.2510368</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3826329744.095921</v>
+        <v>4006493682.275774</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1088901591769987</v>
+        <v>0.1240451150696912</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03994885332151174</v>
+        <v>0.05233454782193468</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>179</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1913164938.763806</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3018202257.965735</v>
+        <v>2700424045.808638</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1431571312135128</v>
+        <v>0.1954261875994548</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02720923282264828</v>
+        <v>0.02411810547838717</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>125</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1509101160.14295</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3756059563.264478</v>
+        <v>3184576855.460683</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1058095475147372</v>
+        <v>0.1124574172776645</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04088624134849926</v>
+        <v>0.04136606468760056</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>142</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1878029826.548256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4036421796.449872</v>
+        <v>4321373546.011156</v>
       </c>
       <c r="F55" t="n">
-        <v>0.168449683402985</v>
+        <v>0.2029202862032986</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02268730253855747</v>
+        <v>0.02363642480960695</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2018210874.760287</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1333063871.409246</v>
+        <v>1235910672.025573</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1409181447554622</v>
+        <v>0.1009175738969589</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05163268429869556</v>
+        <v>0.03905625929744572</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>666532002.690128</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3821741815.14103</v>
+        <v>3645072794.852385</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1692351456505697</v>
+        <v>0.1790514973479765</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01769889575273482</v>
+        <v>0.02724733615262477</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>138</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1910870980.988883</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1764604646.563221</v>
+        <v>1533565059.893255</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1882072651992804</v>
+        <v>0.1295549490167119</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02427442752815808</v>
+        <v>0.03237517023684045</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>882302330.2913256</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4011814868.667517</v>
+        <v>4053230232.391141</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1217888682941052</v>
+        <v>0.09553437457233388</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04969980566132776</v>
+        <v>0.03966268891566619</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2005907409.737284</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3522005645.994982</v>
+        <v>3470828838.016422</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1588585560873234</v>
+        <v>0.178797000744764</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03109335003089229</v>
+        <v>0.02688720988076651</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>134</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1761002948.119744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2539017595.35591</v>
+        <v>3348846110.8564</v>
       </c>
       <c r="F61" t="n">
-        <v>0.118684349490365</v>
+        <v>0.1143887098570851</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01988686623014594</v>
+        <v>0.02442185538940535</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>148</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1269508821.638359</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2114184478.261351</v>
+        <v>1590429254.216091</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1259774921755976</v>
+        <v>0.1547732610993908</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04572931600134873</v>
+        <v>0.04100896208899805</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1057092314.364122</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4699435379.868619</v>
+        <v>4922881812.157287</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1060897626650771</v>
+        <v>0.1007881456106046</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03350979191430884</v>
+        <v>0.03805600664503744</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2349717721.152854</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3655596333.670034</v>
+        <v>3961547993.289152</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1161582820877289</v>
+        <v>0.1500142624850739</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02486549636782989</v>
+        <v>0.03063754614037744</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>135</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1827798178.485917</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4882213049.735107</v>
+        <v>5830885780.821211</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1705071131582217</v>
+        <v>0.122650264115022</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0250454178658762</v>
+        <v>0.02044099806680015</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>155</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2441106490.812364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3459002725.000771</v>
+        <v>3952674964.50598</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1540210543648086</v>
+        <v>0.1202192137234548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0495458860747833</v>
+        <v>0.03466888145854793</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>126</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1729501307.100404</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2483049784.882217</v>
+        <v>3322937040.219647</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1026037581687001</v>
+        <v>0.08272160741305318</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03517485562325069</v>
+        <v>0.03128654228379688</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>139</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1241524954.495232</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5875191783.378766</v>
+        <v>5106669065.141036</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1215043498592638</v>
+        <v>0.1184650365868559</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04276531544322233</v>
+        <v>0.04383234276280584</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>138</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2937596001.144147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1498178052.256516</v>
+        <v>2012278222.242935</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1114949373575649</v>
+        <v>0.1668323502849635</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04165188491918424</v>
+        <v>0.0418358804676877</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>749088966.1960397</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2620983488.520329</v>
+        <v>3437554589.625022</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09077558105318537</v>
+        <v>0.07012553955900183</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04821028541678896</v>
+        <v>0.0382410858449295</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>124</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1310491696.676366</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5166498058.514242</v>
+        <v>4597957649.275756</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1814001497088833</v>
+        <v>0.1450757489826895</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02666766968658102</v>
+        <v>0.02309297619149646</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>158</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2583249147.395716</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1372456524.131348</v>
+        <v>1511064921.439918</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0952736283801376</v>
+        <v>0.06900124517252704</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0446177570255937</v>
+        <v>0.03211968078054837</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>686228309.6080922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3266566179.147406</v>
+        <v>2697513875.78117</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07892339548743636</v>
+        <v>0.09993288000421671</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05110882649741366</v>
+        <v>0.04519285650787108</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>165</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1633283061.141941</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2687240375.505401</v>
+        <v>3982579843.276316</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1636468140683836</v>
+        <v>0.1260024716753733</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02807967458718472</v>
+        <v>0.02749364618688595</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>148</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1343620280.176983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1944922471.409978</v>
+        <v>2047374191.037269</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1595212397996891</v>
+        <v>0.1224125803465948</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03332754211360596</v>
+        <v>0.03197555462848636</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>972461205.0400645</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5103831592.273203</v>
+        <v>5133884951.046938</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09519598924085554</v>
+        <v>0.08900611006531579</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03199321425289072</v>
+        <v>0.02836100569402973</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2551915827.129125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1463565476.66064</v>
+        <v>2040423073.0281</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1267297141184088</v>
+        <v>0.1173458767750467</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02001986472117699</v>
+        <v>0.02814412105406935</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>731782720.6455965</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4037976071.335722</v>
+        <v>3520830187.126224</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1256828693346454</v>
+        <v>0.1188184080213927</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05434481932332046</v>
+        <v>0.0471102693361705</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>151</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2018987998.694817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1685614355.148939</v>
+        <v>1445631735.4754</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1399827189577427</v>
+        <v>0.1674044849378087</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02596047264060685</v>
+        <v>0.02986155263473265</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>842807244.2867732</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4462685340.719498</v>
+        <v>4841996645.383469</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07678328064698951</v>
+        <v>0.0885793911693014</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03579005140877906</v>
+        <v>0.03282166834875031</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2231342692.844831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4859254950.807422</v>
+        <v>4190701738.669299</v>
       </c>
       <c r="F81" t="n">
-        <v>0.120985667681312</v>
+        <v>0.1341055984514823</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02363732191173423</v>
+        <v>0.02161504132105805</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2429627470.54355</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3760519642.05657</v>
+        <v>5041641358.782947</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1928079460982166</v>
+        <v>0.2014399615587349</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01994156982633337</v>
+        <v>0.02867690055955113</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>151</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1880259874.14682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2214936133.280484</v>
+        <v>1626896454.010937</v>
       </c>
       <c r="F83" t="n">
-        <v>0.154559302138417</v>
+        <v>0.09780342449959109</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04358770663065608</v>
+        <v>0.0444479110729094</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1107468078.738918</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1987818688.947235</v>
+        <v>2594059565.165481</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07519660930691945</v>
+        <v>0.08374895972789835</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03941015507806581</v>
+        <v>0.0451684291390963</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>993909351.2890843</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3452972915.571487</v>
+        <v>3250772771.167414</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1773983627248408</v>
+        <v>0.1759838319223524</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0419359094796639</v>
+        <v>0.04350469204245126</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>164</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1726486567.951033</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2217354337.457053</v>
+        <v>2230344245.688567</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1497166480101731</v>
+        <v>0.1253937633322297</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02651539095433655</v>
+        <v>0.02049954800931561</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1108677226.595862</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1502982298.395677</v>
+        <v>1436510600.118379</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1767984223738699</v>
+        <v>0.1228827258722975</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03096377349852</v>
+        <v>0.03401538478217595</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>751491282.455032</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3388500318.630167</v>
+        <v>2275985078.47822</v>
       </c>
       <c r="F88" t="n">
-        <v>0.156739083223074</v>
+        <v>0.1615691205598185</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02474359191686631</v>
+        <v>0.02590765713272792</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>171</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1694250228.189418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2544431154.499615</v>
+        <v>3190590799.437962</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1506221622675721</v>
+        <v>0.1069864267902567</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03257361316281716</v>
+        <v>0.03395447129978175</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>146</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1272215648.772705</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1564277851.974849</v>
+        <v>1845506611.39497</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08698808662857838</v>
+        <v>0.08835081547395035</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04057314352393086</v>
+        <v>0.0557551709018138</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>782138916.4816185</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1578311599.132651</v>
+        <v>1900955614.323702</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1644313179305923</v>
+        <v>0.1623265128573912</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06186329316942626</v>
+        <v>0.05073318228276272</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>789155828.0511048</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2370652044.317762</v>
+        <v>2076934834.42185</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08996562565791642</v>
+        <v>0.09197481088112772</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03363773899871542</v>
+        <v>0.03332456401107876</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1185325996.402393</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3963014177.084672</v>
+        <v>4331220121.96068</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09852740012218564</v>
+        <v>0.1148486191624537</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04697681480751844</v>
+        <v>0.04566655258868734</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1981507091.583809</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1722424961.539303</v>
+        <v>2416989526.350239</v>
       </c>
       <c r="F94" t="n">
-        <v>0.110762845283681</v>
+        <v>0.1101815166277541</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0362785997004693</v>
+        <v>0.0409085963321348</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>861212443.0194989</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2203034402.233735</v>
+        <v>2336101675.013448</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09490876642227929</v>
+        <v>0.1236149401235945</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04161564931985088</v>
+        <v>0.04411196000547285</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>105</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1101517258.804765</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1652027640.562043</v>
+        <v>1885154504.820744</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1261281284807614</v>
+        <v>0.1262718005214839</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03066063029443751</v>
+        <v>0.04632307457087359</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>826013844.4241201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4840019459.672533</v>
+        <v>4490727455.922004</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1414179506816263</v>
+        <v>0.1198899590641895</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01853782541429977</v>
+        <v>0.01857961121723995</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>140</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2420009853.79989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3807061123.212768</v>
+        <v>3453700539.643245</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1250776898031103</v>
+        <v>0.08418117683668933</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02486581377889768</v>
+        <v>0.02880712760561759</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>120</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1903530601.079472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2743162827.984443</v>
+        <v>2483696622.347906</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09708820267360381</v>
+        <v>0.102123114888987</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0227025438853156</v>
+        <v>0.03081315166329244</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>137</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1371581381.402229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3820763505.468419</v>
+        <v>3913349605.799622</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1114450262424207</v>
+        <v>0.1378366284853918</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02488782143953953</v>
+        <v>0.02148156691743097</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>136</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1910381809.104468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2768299441.885844</v>
+        <v>3498676143.391372</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1346288946885265</v>
+        <v>0.1678132389853724</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05536355026402107</v>
+        <v>0.05617209649143107</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>177</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1384149779.38418</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_434.xlsx
+++ b/output/fit_clients/fit_round_434.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2296964570.61155</v>
+        <v>2288635854.824629</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07357875552250735</v>
+        <v>0.1002882723234334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04481878458006289</v>
+        <v>0.04217456125624305</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2297622121.306595</v>
+        <v>2345624897.967585</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1173157697770753</v>
+        <v>0.1195582709777164</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03849962076058386</v>
+        <v>0.03210578613287932</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5131509062.356027</v>
+        <v>4354336229.846767</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1473581476414328</v>
+        <v>0.1244044569233068</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03355339594514679</v>
+        <v>0.03645320974746165</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2898280747.505227</v>
+        <v>4192570385.575309</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1097792274223812</v>
+        <v>0.06880450094999625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05015831350996643</v>
+        <v>0.03989969989602176</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1832933029.536069</v>
+        <v>2529845017.742051</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1041579040940352</v>
+        <v>0.1289857561014399</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04398752322623828</v>
+        <v>0.05068402729599757</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2275296390.738239</v>
+        <v>3118997856.181442</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08054733179310722</v>
+        <v>0.09877624854159335</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03677821949730244</v>
+        <v>0.03572573906868218</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2584695137.231845</v>
+        <v>3777561824.657759</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1974000063107974</v>
+        <v>0.1411276668892517</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02193847199008589</v>
+        <v>0.0301406375231106</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2188040126.724631</v>
+        <v>2139511149.88372</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1252759080889968</v>
+        <v>0.1686400305435376</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02526907777766831</v>
+        <v>0.03338681140517295</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4784061846.389337</v>
+        <v>4188824404.359859</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2039949319549223</v>
+        <v>0.1452413187351452</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05151003400778828</v>
+        <v>0.03901834070390042</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3789278983.594452</v>
+        <v>4012055159.152991</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1385068965446745</v>
+        <v>0.1174825995991434</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03681082585299696</v>
+        <v>0.03481837164692243</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3056718424.166789</v>
+        <v>3014769754.873035</v>
       </c>
       <c r="F12" t="n">
-        <v>0.179091699852714</v>
+        <v>0.1744914167192952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0526872746927537</v>
+        <v>0.03395982395230778</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3577896335.503922</v>
+        <v>4997919331.018877</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06615777266112688</v>
+        <v>0.0673200482276511</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02679503596218953</v>
+        <v>0.02625782869487914</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3019766670.03001</v>
+        <v>2682709225.776402</v>
       </c>
       <c r="F14" t="n">
-        <v>0.188312949737805</v>
+        <v>0.1322888746718832</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0440409604211888</v>
+        <v>0.03046466983268808</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1691754901.765112</v>
+        <v>1510626086.415884</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09532056385309658</v>
+        <v>0.1010369226660097</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04822764228521702</v>
+        <v>0.03111145364466435</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2676296264.905941</v>
+        <v>2392651036.668252</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07610381467063268</v>
+        <v>0.1082485337429994</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0478347995031547</v>
+        <v>0.05021302636965112</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3856114303.864665</v>
+        <v>4289228283.637083</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1279283377906471</v>
+        <v>0.170901613994339</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03313419815706109</v>
+        <v>0.03714010034168434</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3833356418.922392</v>
+        <v>3748558471.081964</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1781143896568932</v>
+        <v>0.1796560175538164</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03066705823051412</v>
+        <v>0.02588739880371303</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1061526345.627937</v>
+        <v>975777578.1104634</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1695336664763584</v>
+        <v>0.1168195290278481</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02224952115060316</v>
+        <v>0.02291749242462789</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1849031536.915407</v>
+        <v>2348840930.439105</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1068877007491301</v>
+        <v>0.1578288137959581</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02638264243682132</v>
+        <v>0.02908613974433475</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1839700511.505508</v>
+        <v>2299811946.478412</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07247236248948256</v>
+        <v>0.0901200734334197</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03421855149897607</v>
+        <v>0.02851713879825466</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2804431784.704382</v>
+        <v>2658944781.123089</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1450184993319608</v>
+        <v>0.1204902347089541</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04803192693681909</v>
+        <v>0.05567330626858642</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1293406209.668353</v>
+        <v>965633183.1645969</v>
       </c>
       <c r="F23" t="n">
-        <v>0.168593396698429</v>
+        <v>0.174190514000191</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04692813923935989</v>
+        <v>0.05012425391615783</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3782479707.161567</v>
+        <v>2706966912.685232</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1310058146421372</v>
+        <v>0.1174135781884932</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03557123218324659</v>
+        <v>0.02780037189310865</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1374347909.296536</v>
+        <v>1402195161.357016</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08697435770428907</v>
+        <v>0.09631197365985002</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01934873143657414</v>
+        <v>0.02883673236725804</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1129490947.692061</v>
+        <v>892383858.7352726</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08828287022403121</v>
+        <v>0.08762715545321738</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03449379549243241</v>
+        <v>0.02941742504266174</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4040038591.638717</v>
+        <v>4552833992.543372</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1060923361278949</v>
+        <v>0.1545552771969504</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02194725322744235</v>
+        <v>0.02162613830886603</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2914126898.67202</v>
+        <v>2629284579.603429</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1421945043156249</v>
+        <v>0.137933511836672</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04719393029726443</v>
+        <v>0.03872858756735176</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5276243565.587736</v>
+        <v>4738937199.525632</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1017137144104717</v>
+        <v>0.1297338047126057</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03600135162233949</v>
+        <v>0.03222649936984525</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1477885336.671332</v>
+        <v>1571743959.192479</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1176935831625992</v>
+        <v>0.1401311694282518</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02704029604413704</v>
+        <v>0.03583679646887386</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>932211921.5573471</v>
+        <v>1102448484.879192</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07754820558315043</v>
+        <v>0.08825657881488477</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04322191735850883</v>
+        <v>0.03804191324593784</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1347598272.484755</v>
+        <v>1709871781.341811</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1014847207196055</v>
+        <v>0.1077614861822909</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02684520708068575</v>
+        <v>0.03132876658867603</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2805809847.87661</v>
+        <v>2216251473.021495</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1898446610961469</v>
+        <v>0.192669131284311</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06096735755072794</v>
+        <v>0.05376954168701439</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>952313359.9913564</v>
+        <v>1345958627.727044</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1139315101825919</v>
+        <v>0.101030057446828</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02812045409772525</v>
+        <v>0.0278680993989753</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1013306529.916281</v>
+        <v>1151340592.565046</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09061623127618039</v>
+        <v>0.1179221823013898</v>
       </c>
       <c r="G35" t="n">
-        <v>0.040246297965097</v>
+        <v>0.03811397765334165</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2545221985.423238</v>
+        <v>2622109796.299466</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1600770552243741</v>
+        <v>0.1366371287313031</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01902034661115113</v>
+        <v>0.02753357901509714</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2433562048.947605</v>
+        <v>2338681484.601056</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07967473114676309</v>
+        <v>0.09187227648389576</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04021413419488858</v>
+        <v>0.03266530989668282</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2122559276.89413</v>
+        <v>1900495803.657228</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1091303136243238</v>
+        <v>0.116141845859406</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03093659784079175</v>
+        <v>0.02633876014644126</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1690868717.136642</v>
+        <v>1807241529.976737</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1226620033579497</v>
+        <v>0.1705346596649088</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03120383226261909</v>
+        <v>0.03036304656939853</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1576722349.962242</v>
+        <v>1368519940.422797</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1360578253417137</v>
+        <v>0.1497070539254091</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04079072959475773</v>
+        <v>0.05573539503159588</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2825665878.133202</v>
+        <v>2280271182.917842</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1541180565959728</v>
+        <v>0.1167873106638129</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03219694484327107</v>
+        <v>0.03080823581812809</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2713573037.738112</v>
+        <v>4171925661.573246</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09455280198971321</v>
+        <v>0.08723320230771114</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03317505670081949</v>
+        <v>0.04605570732003528</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2955437734.253069</v>
+        <v>2029976866.939791</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2040389440048072</v>
+        <v>0.1641254261655048</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01965625159885703</v>
+        <v>0.01687013937544426</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1721213505.341198</v>
+        <v>1773989565.12952</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0632984322724492</v>
+        <v>0.0777145919715172</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03605027596419738</v>
+        <v>0.03123697567794563</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2267295720.787508</v>
+        <v>1657974846.944268</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1681065199575609</v>
+        <v>0.1291132728328415</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04898032810635337</v>
+        <v>0.05205505868625818</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4333879616.49511</v>
+        <v>4678102107.720897</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1077723994647382</v>
+        <v>0.170154247017339</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04977009706854333</v>
+        <v>0.0533242495512604</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4723414089.576536</v>
+        <v>3370221715.343532</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1437277183242386</v>
+        <v>0.198395259590598</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05251377194177713</v>
+        <v>0.04080183323895983</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4612770523.079037</v>
+        <v>2968384130.393633</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08113750062890814</v>
+        <v>0.07289938895082924</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03360287594414876</v>
+        <v>0.02527532521823618</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1430966208.953112</v>
+        <v>1490724013.111916</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1857701009087648</v>
+        <v>0.1247538479121662</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04301729315038987</v>
+        <v>0.03937921898699698</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3865519145.170259</v>
+        <v>3104117312.979043</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1781876352126588</v>
+        <v>0.1672513160566047</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05015174370156804</v>
+        <v>0.03684909013224576</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1286724557.451859</v>
+        <v>1279043304.615479</v>
       </c>
       <c r="F51" t="n">
-        <v>0.193601126152199</v>
+        <v>0.1906920619196759</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03524712698871017</v>
+        <v>0.05117197562246426</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4006493682.275774</v>
+        <v>5021164707.142049</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1240451150696912</v>
+        <v>0.1296736819959964</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05233454782193468</v>
+        <v>0.04244037791150502</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2700424045.808638</v>
+        <v>3031179949.974716</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1954261875994548</v>
+        <v>0.2004893499282321</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02411810547838717</v>
+        <v>0.03554958255968806</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3184576855.460683</v>
+        <v>4836757736.183707</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1124574172776645</v>
+        <v>0.1062931914690675</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04136606468760056</v>
+        <v>0.03609865468052184</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4321373546.011156</v>
+        <v>3748631671.003963</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2029202862032986</v>
+        <v>0.1628002038919872</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02363642480960695</v>
+        <v>0.03002900546500634</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1235910672.025573</v>
+        <v>1654111329.594341</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1009175738969589</v>
+        <v>0.1365485361539503</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03905625929744572</v>
+        <v>0.04313205700420925</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3645072794.852385</v>
+        <v>3585151134.865596</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1790514973479765</v>
+        <v>0.1639332499018615</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02724733615262477</v>
+        <v>0.02642082091905278</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1533565059.893255</v>
+        <v>1886813289.740576</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1295549490167119</v>
+        <v>0.1582847348123593</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03237517023684045</v>
+        <v>0.02440828172870421</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4053230232.391141</v>
+        <v>4469661580.24107</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09553437457233388</v>
+        <v>0.09015261479339383</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03966268891566619</v>
+        <v>0.04766003798537576</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3470828838.016422</v>
+        <v>3264789269.034822</v>
       </c>
       <c r="F60" t="n">
-        <v>0.178797000744764</v>
+        <v>0.1354002795442115</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02688720988076651</v>
+        <v>0.02820588755091561</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3348846110.8564</v>
+        <v>3093254081.769006</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1143887098570851</v>
+        <v>0.1298436354205442</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02442185538940535</v>
+        <v>0.02377742734851656</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1590429254.216091</v>
+        <v>1505819275.914322</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1547732610993908</v>
+        <v>0.1661318180800889</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04100896208899805</v>
+        <v>0.03708854871578184</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4922881812.157287</v>
+        <v>3582641135.0342</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1007881456106046</v>
+        <v>0.08525416233050567</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03805600664503744</v>
+        <v>0.03302353549693917</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3961547993.289152</v>
+        <v>5377925104.88768</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1500142624850739</v>
+        <v>0.1876757392801002</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03063754614037744</v>
+        <v>0.02751083032494844</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5830885780.821211</v>
+        <v>3895797505.959417</v>
       </c>
       <c r="F65" t="n">
-        <v>0.122650264115022</v>
+        <v>0.1055598120426351</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02044099806680015</v>
+        <v>0.02514546348806133</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3952674964.50598</v>
+        <v>4056313998.172523</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1202192137234548</v>
+        <v>0.1280464873994639</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03466888145854793</v>
+        <v>0.04245088453089241</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3322937040.219647</v>
+        <v>2716707053.454173</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08272160741305318</v>
+        <v>0.09252005787883047</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03128654228379688</v>
+        <v>0.05051919811956251</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5106669065.141036</v>
+        <v>4714963126.977151</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1184650365868559</v>
+        <v>0.1340547274293559</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04383234276280584</v>
+        <v>0.04408035852963029</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2012278222.242935</v>
+        <v>2197148637.953583</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1668323502849635</v>
+        <v>0.1181536445247325</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0418358804676877</v>
+        <v>0.05553405706059455</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3437554589.625022</v>
+        <v>3659609067.32843</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07012553955900183</v>
+        <v>0.08308217030488949</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0382410858449295</v>
+        <v>0.04084774035236093</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4597957649.275756</v>
+        <v>3478293680.717825</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1450757489826895</v>
+        <v>0.1162662621294821</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02309297619149646</v>
+        <v>0.02414906614613716</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1511064921.439918</v>
+        <v>2065358035.859195</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06900124517252704</v>
+        <v>0.1015024125148767</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03211968078054837</v>
+        <v>0.04655554360760143</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2697513875.78117</v>
+        <v>3235496866.50507</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09993288000421671</v>
+        <v>0.06924199621028861</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04519285650787108</v>
+        <v>0.04624213376539011</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3982579843.276316</v>
+        <v>2602812646.005344</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1260024716753733</v>
+        <v>0.1182019447094236</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02749364618688595</v>
+        <v>0.02346257027311407</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2047374191.037269</v>
+        <v>1927266872.16999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1224125803465948</v>
+        <v>0.1565885348745158</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03197555462848636</v>
+        <v>0.028470889014594</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5133884951.046938</v>
+        <v>3498940944.577522</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08900611006531579</v>
+        <v>0.0812160189844805</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02836100569402973</v>
+        <v>0.03029369116801622</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2040423073.0281</v>
+        <v>1400368742.684237</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1173458767750467</v>
+        <v>0.1326349387136968</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02814412105406935</v>
+        <v>0.0272849077501798</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3520830187.126224</v>
+        <v>4115930759.183019</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1188184080213927</v>
+        <v>0.1363582879221862</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0471102693361705</v>
+        <v>0.03777986465303998</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1445631735.4754</v>
+        <v>1428070183.397616</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1674044849378087</v>
+        <v>0.1472351386034931</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02986155263473265</v>
+        <v>0.03340291247307124</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4841996645.383469</v>
+        <v>5141518835.778734</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0885793911693014</v>
+        <v>0.1088573803940852</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03282166834875031</v>
+        <v>0.02496252288683304</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4190701738.669299</v>
+        <v>4986797721.289183</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1341055984514823</v>
+        <v>0.1297676447998773</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02161504132105805</v>
+        <v>0.03263076489458092</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5041641358.782947</v>
+        <v>4094793819.621905</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2014399615587349</v>
+        <v>0.1883735213339721</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02867690055955113</v>
+        <v>0.02476434128101552</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1626896454.010937</v>
+        <v>1898720265.965261</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09780342449959109</v>
+        <v>0.1189717909861766</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0444479110729094</v>
+        <v>0.0300619745456444</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2594059565.165481</v>
+        <v>1641982304.84077</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08374895972789835</v>
+        <v>0.1081836776998629</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0451684291390963</v>
+        <v>0.04658226636300517</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3250772771.167414</v>
+        <v>3549265470.077153</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1759838319223524</v>
+        <v>0.1403200934942899</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04350469204245126</v>
+        <v>0.03497441373889676</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2230344245.688567</v>
+        <v>2321736666.252422</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1253937633322297</v>
+        <v>0.1104763360391346</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02049954800931561</v>
+        <v>0.02604180932354007</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1436510600.118379</v>
+        <v>1317958245.705013</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1228827258722975</v>
+        <v>0.1499238150034288</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03401538478217595</v>
+        <v>0.04186293516946343</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2275985078.47822</v>
+        <v>3552606527.475301</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1615691205598185</v>
+        <v>0.1552623925750833</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02590765713272792</v>
+        <v>0.02670051907697752</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3190590799.437962</v>
+        <v>2775988788.923154</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1069864267902567</v>
+        <v>0.1103673719498997</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03395447129978175</v>
+        <v>0.0287461946007491</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1845506611.39497</v>
+        <v>1648590472.826677</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08835081547395035</v>
+        <v>0.1029953343255226</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0557551709018138</v>
+        <v>0.04031845258510101</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1900955614.323702</v>
+        <v>1579186283.632976</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1623265128573912</v>
+        <v>0.1454699235212984</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05073318228276272</v>
+        <v>0.03933259066697776</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2076934834.42185</v>
+        <v>2215458701.306997</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09197481088112772</v>
+        <v>0.0988878576915115</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03332456401107876</v>
+        <v>0.03236926336566388</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4331220121.96068</v>
+        <v>3232199239.46208</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1148486191624537</v>
+        <v>0.1246659668438593</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04566655258868734</v>
+        <v>0.03816323428206504</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2416989526.350239</v>
+        <v>1603290772.252498</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1101815166277541</v>
+        <v>0.1477160055113607</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0409085963321348</v>
+        <v>0.03653262844390791</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2336101675.013448</v>
+        <v>2012057265.094664</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1236149401235945</v>
+        <v>0.1354451734935935</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04411196000547285</v>
+        <v>0.04669274744832159</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1885154504.820744</v>
+        <v>2149351565.088967</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1262718005214839</v>
+        <v>0.09783119496779949</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04632307457087359</v>
+        <v>0.04561481029329828</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4490727455.922004</v>
+        <v>3953129013.746896</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1198899590641895</v>
+        <v>0.1160358121861766</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01857961121723995</v>
+        <v>0.02068336278819487</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3453700539.643245</v>
+        <v>3688890148.106843</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08418117683668933</v>
+        <v>0.1059908392181522</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02880712760561759</v>
+        <v>0.02829520370248105</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2483696622.347906</v>
+        <v>2822731588.511188</v>
       </c>
       <c r="F99" t="n">
-        <v>0.102123114888987</v>
+        <v>0.1119134791475433</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03081315166329244</v>
+        <v>0.03381857692374337</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3913349605.799622</v>
+        <v>3658693094.921657</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1378366284853918</v>
+        <v>0.1081459509274222</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02148156691743097</v>
+        <v>0.02508772532793547</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3498676143.391372</v>
+        <v>2417762827.686882</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1678132389853724</v>
+        <v>0.139290410102566</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05617209649143107</v>
+        <v>0.04681857639165532</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_434.xlsx
+++ b/output/fit_clients/fit_round_434.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2288635854.824629</v>
+        <v>1954886980.957634</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1002882723234334</v>
+        <v>0.07215309422095495</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04217456125624305</v>
+        <v>0.0313443684629093</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2345624897.967585</v>
+        <v>2411903539.845996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1195582709777164</v>
+        <v>0.1458884389463906</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03210578613287932</v>
+        <v>0.0307461069904712</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4354336229.846767</v>
+        <v>3177515591.870762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1244044569233068</v>
+        <v>0.1267518899773734</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03645320974746165</v>
+        <v>0.03450596313051219</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>220</v>
+      </c>
+      <c r="J4" t="n">
+        <v>433</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.53066648763121</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4192570385.575309</v>
+        <v>3235540117.905756</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06880450094999625</v>
+        <v>0.09954651852587169</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03989969989602176</v>
+        <v>0.03668066937676899</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>180</v>
+      </c>
+      <c r="J5" t="n">
+        <v>432</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2529845017.742051</v>
+        <v>1848335511.373967</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1289857561014399</v>
+        <v>0.08971581951421652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05068402729599757</v>
+        <v>0.04840987407108138</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3118997856.181442</v>
+        <v>2689757515.271741</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09877624854159335</v>
+        <v>0.09192698628091024</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03572573906868218</v>
+        <v>0.03455392835704315</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3777561824.657759</v>
+        <v>2871203755.519091</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1411276668892517</v>
+        <v>0.1816223083296652</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0301406375231106</v>
+        <v>0.02956584140356676</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>118</v>
+      </c>
+      <c r="J8" t="n">
+        <v>433</v>
+      </c>
+      <c r="K8" t="n">
+        <v>38.50818549178262</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2139511149.88372</v>
+        <v>1853388503.523935</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1686400305435376</v>
+        <v>0.1991548713796557</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03338681140517295</v>
+        <v>0.02375167032346339</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4188824404.359859</v>
+        <v>4936947757.269298</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1452413187351452</v>
+        <v>0.1866883525575603</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03901834070390042</v>
+        <v>0.05141086630000327</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>342</v>
+      </c>
+      <c r="J10" t="n">
+        <v>433</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39.3362068476278</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4012055159.152991</v>
+        <v>2929029594.700029</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1174825995991434</v>
+        <v>0.191056412966426</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03481837164692243</v>
+        <v>0.03013197808788515</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>179</v>
+      </c>
+      <c r="J11" t="n">
+        <v>433</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32.44142528561817</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3014769754.873035</v>
+        <v>2328131910.874896</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1744914167192952</v>
+        <v>0.1237783134055179</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03395982395230778</v>
+        <v>0.04883055840016882</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +894,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4997919331.018877</v>
+        <v>3833745930.754671</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0673200482276511</v>
+        <v>0.08929745857572574</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02625782869487914</v>
+        <v>0.01946976231795679</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>226</v>
+      </c>
+      <c r="J13" t="n">
+        <v>434</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2682709225.776402</v>
+        <v>3883789640.761134</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1322888746718832</v>
+        <v>0.1691981791700733</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03046466983268808</v>
+        <v>0.03562087277434327</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>434</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1510626086.415884</v>
+        <v>1186523927.998346</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1010369226660097</v>
+        <v>0.0972875870744933</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03111145364466435</v>
+        <v>0.04264718511505227</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2392651036.668252</v>
+        <v>2631600308.341331</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1082485337429994</v>
+        <v>0.07966765245868683</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05021302636965112</v>
+        <v>0.03489465787694034</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4289228283.637083</v>
+        <v>4754846130.977826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.170901613994339</v>
+        <v>0.1242562557371154</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03714010034168434</v>
+        <v>0.03713721977161114</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>211</v>
+      </c>
+      <c r="J17" t="n">
+        <v>434</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3748558471.081964</v>
+        <v>2460174267.92153</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1796560175538164</v>
+        <v>0.1552570034421707</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02588739880371303</v>
+        <v>0.03215807938416525</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>975777578.1104634</v>
+        <v>918163354.3367569</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1168195290278481</v>
+        <v>0.1733141582977392</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02291749242462789</v>
+        <v>0.02208316079492597</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2348840930.439105</v>
+        <v>2480715580.603278</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1578288137959581</v>
+        <v>0.14338582842219</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02908613974433475</v>
+        <v>0.02958364880861573</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2299811946.478412</v>
+        <v>2549249721.240327</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0901200734334197</v>
+        <v>0.0730051451651146</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02851713879825466</v>
+        <v>0.03245293832553744</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2658944781.123089</v>
+        <v>3505338624.215009</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1204902347089541</v>
+        <v>0.1401387117118722</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05567330626858642</v>
+        <v>0.0411265778452236</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>126</v>
+      </c>
+      <c r="J22" t="n">
+        <v>434</v>
+      </c>
+      <c r="K22" t="n">
+        <v>50.72095652977421</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>965633183.1645969</v>
+        <v>1244178685.852959</v>
       </c>
       <c r="F23" t="n">
-        <v>0.174190514000191</v>
+        <v>0.1519122183718959</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05012425391615783</v>
+        <v>0.04747430042900909</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2706966912.685232</v>
+        <v>2838049489.680823</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1174135781884932</v>
+        <v>0.1074482533892018</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02780037189310865</v>
+        <v>0.02843708237330695</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137</v>
+      </c>
+      <c r="J24" t="n">
+        <v>429</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1402195161.357016</v>
+        <v>1282738598.641541</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09631197365985002</v>
+        <v>0.1226473281898728</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02883673236725804</v>
+        <v>0.02809390518109007</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>892383858.7352726</v>
+        <v>1166463680.158384</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08762715545321738</v>
+        <v>0.1140892129992239</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02941742504266174</v>
+        <v>0.03409731549397649</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4552833992.543372</v>
+        <v>3930427116.366883</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1545552771969504</v>
+        <v>0.1295903001375359</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02162613830886603</v>
+        <v>0.02315402366899139</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>186</v>
+      </c>
+      <c r="J27" t="n">
+        <v>434</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43.26082360453224</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2629284579.603429</v>
+        <v>2915923024.377214</v>
       </c>
       <c r="F28" t="n">
-        <v>0.137933511836672</v>
+        <v>0.1365730409357021</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03872858756735176</v>
+        <v>0.03809452603882554</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>106</v>
+      </c>
+      <c r="J28" t="n">
+        <v>431</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4738937199.525632</v>
+        <v>4601811625.002863</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1297338047126057</v>
+        <v>0.1056903069105346</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03222649936984525</v>
+        <v>0.04222676626256285</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>358</v>
+      </c>
+      <c r="J29" t="n">
+        <v>433</v>
+      </c>
+      <c r="K29" t="n">
+        <v>37.18589302674472</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1571743959.192479</v>
+        <v>2292993721.602878</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1401311694282518</v>
+        <v>0.09267216731765346</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03583679646887386</v>
+        <v>0.03267646765369286</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1102448484.879192</v>
+        <v>1496748454.685004</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08825657881488477</v>
+        <v>0.1115262649721652</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03804191324593784</v>
+        <v>0.03289382684634452</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1709871781.341811</v>
+        <v>1200718371.44851</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1077614861822909</v>
+        <v>0.1038849847604083</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03132876658867603</v>
+        <v>0.0260352640184063</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2216251473.021495</v>
+        <v>2315660078.27433</v>
       </c>
       <c r="F33" t="n">
-        <v>0.192669131284311</v>
+        <v>0.1686820126803991</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05376954168701439</v>
+        <v>0.05892326834885627</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1345958627.727044</v>
+        <v>1219832682.770275</v>
       </c>
       <c r="F34" t="n">
-        <v>0.101030057446828</v>
+        <v>0.1193108463865262</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0278680993989753</v>
+        <v>0.02337839983466618</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1151340592.565046</v>
+        <v>998781059.2159407</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1179221823013898</v>
+        <v>0.103715818648137</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03811397765334165</v>
+        <v>0.02726660033039364</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2622109796.299466</v>
+        <v>2137193598.853737</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1366371287313031</v>
+        <v>0.1732826662424198</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02753357901509714</v>
+        <v>0.02639219140802107</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2338681484.601056</v>
+        <v>2095675259.642379</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09187227648389576</v>
+        <v>0.1052280280198056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03266530989668282</v>
+        <v>0.04102155654061662</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1900495803.657228</v>
+        <v>1770326861.772224</v>
       </c>
       <c r="F38" t="n">
-        <v>0.116141845859406</v>
+        <v>0.09665692521458806</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02633876014644126</v>
+        <v>0.03368042548021152</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1807241529.976737</v>
+        <v>2039823962.991252</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1705346596649088</v>
+        <v>0.128003284778227</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03036304656939853</v>
+        <v>0.02741367269800736</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1368519940.422797</v>
+        <v>1601586575.314361</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1497070539254091</v>
+        <v>0.1314771017440614</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05573539503159588</v>
+        <v>0.04069540602108785</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2280271182.917842</v>
+        <v>2591527356.445085</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1167873106638129</v>
+        <v>0.1039246492673628</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03080823581812809</v>
+        <v>0.03557341817849978</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4171925661.573246</v>
+        <v>4354250771.559721</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08723320230771114</v>
+        <v>0.09188051254084008</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04605570732003528</v>
+        <v>0.04118192830723894</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>187</v>
+      </c>
+      <c r="J42" t="n">
+        <v>434</v>
+      </c>
+      <c r="K42" t="n">
+        <v>48.71083759004454</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2029976866.939791</v>
+        <v>2222159753.537274</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1641254261655048</v>
+        <v>0.1851360104911607</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01687013937544426</v>
+        <v>0.01801890871498715</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1773989565.12952</v>
+        <v>2152500402.296605</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0777145919715172</v>
+        <v>0.08634780406413435</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03123697567794563</v>
+        <v>0.03230602544817931</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1657974846.944268</v>
+        <v>2117893873.917447</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1291132728328415</v>
+        <v>0.1325533284504745</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05205505868625818</v>
+        <v>0.03665591536104357</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4678102107.720897</v>
+        <v>4127710521.142005</v>
       </c>
       <c r="F46" t="n">
-        <v>0.170154247017339</v>
+        <v>0.1385758655932821</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0533242495512604</v>
+        <v>0.05711917326720748</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>258</v>
+      </c>
+      <c r="J46" t="n">
+        <v>434</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3370221715.343532</v>
+        <v>4438194111.496098</v>
       </c>
       <c r="F47" t="n">
-        <v>0.198395259590598</v>
+        <v>0.1855952814015359</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04080183323895983</v>
+        <v>0.04048621391975649</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>195</v>
+      </c>
+      <c r="J47" t="n">
+        <v>433</v>
+      </c>
+      <c r="K47" t="n">
+        <v>39.64795300446848</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2968384130.393633</v>
+        <v>3451344386.431945</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07289938895082924</v>
+        <v>0.09841981411023824</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02527532521823618</v>
+        <v>0.03125836937230476</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>221</v>
+      </c>
+      <c r="J48" t="n">
+        <v>431</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1490724013.111916</v>
+        <v>1663962732.965176</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1247538479121662</v>
+        <v>0.1548016856954991</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03937921898699698</v>
+        <v>0.03616615008496191</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3104117312.979043</v>
+        <v>3256098866.045321</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1672513160566047</v>
+        <v>0.1330841242640776</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03684909013224576</v>
+        <v>0.04677147891936283</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>152</v>
+      </c>
+      <c r="J50" t="n">
+        <v>432</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1279043304.615479</v>
+        <v>1312697748.034706</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1906920619196759</v>
+        <v>0.1823771699373977</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05117197562246426</v>
+        <v>0.03790579814178162</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5021164707.142049</v>
+        <v>4838994241.282872</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1296736819959964</v>
+        <v>0.1183637553072495</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04244037791150502</v>
+        <v>0.0474664238634845</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>248</v>
+      </c>
+      <c r="J52" t="n">
+        <v>434</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3031179949.974716</v>
+        <v>2591225250.900126</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2004893499282321</v>
+        <v>0.1995596579971559</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03554958255968806</v>
+        <v>0.02309100250049928</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>64</v>
+      </c>
+      <c r="J53" t="n">
+        <v>433</v>
+      </c>
+      <c r="K53" t="n">
+        <v>33.85984801523634</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4836757736.183707</v>
+        <v>3189329678.75017</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1062931914690675</v>
+        <v>0.1405145606954621</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03609865468052184</v>
+        <v>0.03657488673317951</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>231</v>
+      </c>
+      <c r="J54" t="n">
+        <v>433</v>
+      </c>
+      <c r="K54" t="n">
+        <v>30.92942133108011</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3748631671.003963</v>
+        <v>3135652510.853715</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1628002038919872</v>
+        <v>0.2236764907514727</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03002900546500634</v>
+        <v>0.03004101183750859</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>215</v>
+      </c>
+      <c r="J55" t="n">
+        <v>432</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1654111329.594341</v>
+        <v>1284467140.535622</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1365485361539503</v>
+        <v>0.1490778009921645</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04313205700420925</v>
+        <v>0.04892653361954912</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3585151134.865596</v>
+        <v>2761168675.180713</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1639332499018615</v>
+        <v>0.1326611532925637</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02642082091905278</v>
+        <v>0.0235144149188967</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>189</v>
+      </c>
+      <c r="J57" t="n">
+        <v>432</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1886813289.740576</v>
+        <v>1483685895.250204</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1582847348123593</v>
+        <v>0.1905823796896186</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02440828172870421</v>
+        <v>0.03826187539063727</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4469661580.24107</v>
+        <v>4677836482.01985</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09015261479339383</v>
+        <v>0.0942170649238241</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04766003798537576</v>
+        <v>0.03355632175539514</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>212</v>
+      </c>
+      <c r="J59" t="n">
+        <v>434</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2553,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3264789269.034822</v>
+        <v>3067510295.093335</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1354002795442115</v>
+        <v>0.1524871029243905</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02820588755091561</v>
+        <v>0.02843019484768935</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>84</v>
+      </c>
+      <c r="J60" t="n">
+        <v>434</v>
+      </c>
+      <c r="K60" t="n">
+        <v>49.28833301696533</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3093254081.769006</v>
+        <v>3021321999.582581</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1298436354205442</v>
+        <v>0.1114627805238737</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02377742734851656</v>
+        <v>0.02236757932506788</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1505819275.914322</v>
+        <v>1365385709.570821</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1661318180800889</v>
+        <v>0.1875837140102469</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03708854871578184</v>
+        <v>0.03633737081114654</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3582641135.0342</v>
+        <v>3697996026.664028</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08525416233050567</v>
+        <v>0.07760114420700569</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03302353549693917</v>
+        <v>0.0336960431114454</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>216</v>
+      </c>
+      <c r="J63" t="n">
+        <v>434</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5377925104.88768</v>
+        <v>4094679193.395711</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1876757392801002</v>
+        <v>0.175420389598974</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02751083032494844</v>
+        <v>0.03366781110507115</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>217</v>
+      </c>
+      <c r="J64" t="n">
+        <v>434</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2730,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3895797505.959417</v>
+        <v>4712059610.37154</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1055598120426351</v>
+        <v>0.1725903745183576</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02514546348806133</v>
+        <v>0.02064234312068321</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>314</v>
+      </c>
+      <c r="J65" t="n">
+        <v>434</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4056313998.172523</v>
+        <v>5116775106.531297</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1280464873994639</v>
+        <v>0.1246236984218958</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04245088453089241</v>
+        <v>0.04185966445052985</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>214</v>
+      </c>
+      <c r="J66" t="n">
+        <v>433</v>
+      </c>
+      <c r="K66" t="n">
+        <v>35.54806077065777</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2716707053.454173</v>
+        <v>3266635499.468053</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09252005787883047</v>
+        <v>0.07058961011465378</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05051919811956251</v>
+        <v>0.03556578360833832</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4714963126.977151</v>
+        <v>4421881522.458042</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1340547274293559</v>
+        <v>0.1137790452112944</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04408035852963029</v>
+        <v>0.03285380501932898</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>237</v>
+      </c>
+      <c r="J68" t="n">
+        <v>433</v>
+      </c>
+      <c r="K68" t="n">
+        <v>36.49094563219739</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2197148637.953583</v>
+        <v>2098573293.368369</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1181536445247325</v>
+        <v>0.1169324730108296</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05553405706059455</v>
+        <v>0.04248304408477791</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3659609067.32843</v>
+        <v>3344124822.653296</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08308217030488949</v>
+        <v>0.06731773969595357</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04084774035236093</v>
+        <v>0.04664475762254125</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>61</v>
+      </c>
+      <c r="J70" t="n">
+        <v>434</v>
+      </c>
+      <c r="K70" t="n">
+        <v>53.60582965936521</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3478293680.717825</v>
+        <v>4062503650.979064</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1162662621294821</v>
+        <v>0.1460794262637027</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02414906614613716</v>
+        <v>0.02898783090828471</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>300</v>
+      </c>
+      <c r="J71" t="n">
+        <v>434</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2065358035.859195</v>
+        <v>1550429134.312493</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1015024125148767</v>
+        <v>0.07609242040298166</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04655554360760143</v>
+        <v>0.0325615863907586</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3235496866.50507</v>
+        <v>3438502606.597529</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06924199621028861</v>
+        <v>0.06892457302688479</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04624213376539011</v>
+        <v>0.04399720020348231</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>426</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2602812646.005344</v>
+        <v>2859716131.593821</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1182019447094236</v>
+        <v>0.1774567543409821</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02346257027311407</v>
+        <v>0.02271405274940733</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1927266872.16999</v>
+        <v>1533834217.946529</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1565885348745158</v>
+        <v>0.154314858712128</v>
       </c>
       <c r="G75" t="n">
-        <v>0.028470889014594</v>
+        <v>0.03289050142144194</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3498940944.577522</v>
+        <v>3435060487.903075</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0812160189844805</v>
+        <v>0.0962150322964382</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03029369116801622</v>
+        <v>0.02847371949526574</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>207</v>
+      </c>
+      <c r="J76" t="n">
+        <v>433</v>
+      </c>
+      <c r="K76" t="n">
+        <v>37.18572113803214</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1400368742.684237</v>
+        <v>1795866274.186554</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1326349387136968</v>
+        <v>0.1486248633816867</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0272849077501798</v>
+        <v>0.02897364009281421</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4115930759.183019</v>
+        <v>3175742073.780313</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1363582879221862</v>
+        <v>0.1086316796728372</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03777986465303998</v>
+        <v>0.04259870989446551</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>218</v>
+      </c>
+      <c r="J78" t="n">
+        <v>433</v>
+      </c>
+      <c r="K78" t="n">
+        <v>31.95395069755234</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1428070183.397616</v>
+        <v>1324136372.375597</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1472351386034931</v>
+        <v>0.1367379125244421</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03340291247307124</v>
+        <v>0.03134435110917131</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5141518835.778734</v>
+        <v>3469584151.892959</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1088573803940852</v>
+        <v>0.09011075908911759</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02496252288683304</v>
+        <v>0.02400700014686952</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>211</v>
+      </c>
+      <c r="J80" t="n">
+        <v>434</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4986797721.289183</v>
+        <v>4564012960.637974</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1297676447998773</v>
+        <v>0.1350097477761812</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03263076489458092</v>
+        <v>0.03112693065789359</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>201</v>
+      </c>
+      <c r="J81" t="n">
+        <v>433</v>
+      </c>
+      <c r="K81" t="n">
+        <v>39.47837805124401</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4094793819.621905</v>
+        <v>4368638034.672793</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1883735213339721</v>
+        <v>0.1680868346470323</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02476434128101552</v>
+        <v>0.02045138201454194</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>292</v>
+      </c>
+      <c r="J82" t="n">
+        <v>434</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1898720265.965261</v>
+        <v>1783432152.423727</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1189717909861766</v>
+        <v>0.15614220242569</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0300619745456444</v>
+        <v>0.02813161170662399</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1641982304.84077</v>
+        <v>2322543054.492435</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1081836776998629</v>
+        <v>0.07674405383710718</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04658226636300517</v>
+        <v>0.03269736977533527</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3549265470.077153</v>
+        <v>2846163804.157528</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1403200934942899</v>
+        <v>0.1144897961801804</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03497441373889676</v>
+        <v>0.05240921686717024</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>430</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2321736666.252422</v>
+        <v>2167735990.98884</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1104763360391346</v>
+        <v>0.1724306811659656</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02604180932354007</v>
+        <v>0.02738927285403876</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1317958245.705013</v>
+        <v>1357114900.116014</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1499238150034288</v>
+        <v>0.1696521434622733</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04186293516946343</v>
+        <v>0.0375441556660629</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3552606527.475301</v>
+        <v>3468683810.236883</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1552623925750833</v>
+        <v>0.1241343498896666</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02670051907697752</v>
+        <v>0.03325545126751117</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2775988788.923154</v>
+        <v>2311507254.320054</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1103673719498997</v>
+        <v>0.1035700109715617</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0287461946007491</v>
+        <v>0.04135130159028165</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1648590472.826677</v>
+        <v>2079718436.489178</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1029953343255226</v>
+        <v>0.1364255343194057</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04031845258510101</v>
+        <v>0.04561303891336056</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1579186283.632976</v>
+        <v>1415369740.979534</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1454699235212984</v>
+        <v>0.1427395135261171</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03933259066697776</v>
+        <v>0.05113323781092736</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2215458701.306997</v>
+        <v>2384848671.325722</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0988878576915115</v>
+        <v>0.07359060942880491</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03236926336566388</v>
+        <v>0.03390887170186776</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3232199239.46208</v>
+        <v>4105066966.943829</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1246659668438593</v>
+        <v>0.1425012744750389</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03816323428206504</v>
+        <v>0.05487001170176643</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>208</v>
+      </c>
+      <c r="J93" t="n">
+        <v>434</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1603290772.252498</v>
+        <v>2439090205.345265</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1477160055113607</v>
+        <v>0.101621391550243</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03653262844390791</v>
+        <v>0.03070514434560221</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2012057265.094664</v>
+        <v>3025432505.681957</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1354451734935935</v>
+        <v>0.1374309241411178</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04669274744832159</v>
+        <v>0.05053334191871721</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2149351565.088967</v>
+        <v>1695807576.969037</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09783119496779949</v>
+        <v>0.1021727361528093</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04561481029329828</v>
+        <v>0.02999730416820998</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3953129013.746896</v>
+        <v>4659388751.416617</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1160358121861766</v>
+        <v>0.1494232332148628</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02068336278819487</v>
+        <v>0.01870742249151721</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>227</v>
+      </c>
+      <c r="J97" t="n">
+        <v>433</v>
+      </c>
+      <c r="K97" t="n">
+        <v>39.3287318871219</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3688890148.106843</v>
+        <v>3564276834.01631</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1059908392181522</v>
+        <v>0.1266506527522111</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02829520370248105</v>
+        <v>0.02547380254425664</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>109</v>
+      </c>
+      <c r="J98" t="n">
+        <v>434</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2822731588.511188</v>
+        <v>3218305025.180225</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1119134791475433</v>
+        <v>0.1352281906713916</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03381857692374337</v>
+        <v>0.0230244225424082</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3658693094.921657</v>
+        <v>4610574855.23446</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1081459509274222</v>
+        <v>0.1590272238194393</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02508772532793547</v>
+        <v>0.02111103173290837</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>202</v>
+      </c>
+      <c r="J100" t="n">
+        <v>433</v>
+      </c>
+      <c r="K100" t="n">
+        <v>39.19997910426416</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2417762827.686882</v>
+        <v>3578253240.552457</v>
       </c>
       <c r="F101" t="n">
-        <v>0.139290410102566</v>
+        <v>0.2115607322064187</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04681857639165532</v>
+        <v>0.04761540825994866</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>434</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
